--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_MEXICO_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_MEXICO_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D938"/>
+  <dimension ref="A1:D932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C74">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C88">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C113">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C115">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C123">
@@ -2224,7 +2224,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C141">
@@ -2398,7 +2398,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C168">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C182">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C186">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C194">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C195">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C196">
@@ -3084,12 +3084,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C206">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C223">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C230">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C235">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C243">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C249">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C255">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C266">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C268">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C273">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C277">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C282">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C286">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C288">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C291">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C292">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C295">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C312">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C318">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C324">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C333">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C337">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C341">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C357">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C365">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C368">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C374">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C380">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C386">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C395">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C399">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C406">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C413">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C418">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C420">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C425">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C428">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C433">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C436">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C445">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C451">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C455">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C469">
@@ -6559,7 +6559,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C471">
@@ -7053,7 +7053,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C509">
@@ -7370,7 +7370,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C533">
@@ -7396,7 +7396,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C535">
@@ -7409,7 +7409,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C536">
@@ -7505,7 +7505,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C543">
@@ -7518,7 +7518,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C544">
@@ -7570,7 +7570,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C548">
@@ -7622,7 +7622,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C552">
@@ -7835,7 +7835,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C568">
@@ -7861,7 +7861,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C570">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C573">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C578">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C585">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C623">
@@ -8588,7 +8588,7 @@
         <v>99</v>
       </c>
       <c r="D625">
-        <v>0.009792284866468843</v>
+        <v>0.009792284866468845</v>
       </c>
     </row>
     <row r="626">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C634">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C642">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C645">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C647">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C653">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C660">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C663">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C664">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C670">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C672">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C673">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C685">
@@ -9397,7 +9397,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C687">
@@ -9449,7 +9449,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C691">
@@ -9462,7 +9462,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C692">
@@ -9475,7 +9475,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C693">
@@ -9514,7 +9514,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C696">
@@ -9667,7 +9667,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C707">
@@ -9784,7 +9784,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C716">
@@ -9810,7 +9810,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C718">
@@ -9875,7 +9875,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C723">
@@ -9888,7 +9888,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C724">
@@ -9901,7 +9901,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C725">
@@ -9914,7 +9914,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C726">
@@ -10470,7 +10470,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C768">
@@ -10574,7 +10574,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C776">
@@ -11031,7 +11031,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C810">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C825">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C835">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C842">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C852">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C853">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C862">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C869">
@@ -11920,7 +11920,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C878">
@@ -12086,7 +12086,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C890">
@@ -12112,7 +12112,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C892">
@@ -12346,7 +12346,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C910">
@@ -12359,7 +12359,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C911">
@@ -12489,7 +12489,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C921">
@@ -12502,7 +12502,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C922">
@@ -12541,7 +12541,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C925">
@@ -12640,41 +12640,6 @@
       </c>
       <c r="D932">
         <v>1</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
